--- a/BioMedicEngine/qualityEvaluation/excel/eval.xlsx
+++ b/BioMedicEngine/qualityEvaluation/excel/eval.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="35">
   <si>
     <t>TopicNO</t>
   </si>
@@ -85,18 +85,6 @@
   </si>
   <si>
     <t>set</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>w-0.1</t>
@@ -211,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,6 +232,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1782,7 +1776,7 @@
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,10 +1965,10 @@
       <c r="D3" s="2">
         <v>0.74390243902439002</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="13">
         <v>0.62195121951219501</v>
       </c>
       <c r="G3" s="1">
@@ -2057,10 +2051,10 @@
       <c r="D4" s="2">
         <v>0.54615384615384599</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="12">
         <v>2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="13">
         <v>0.492307692307692</v>
       </c>
       <c r="G4" s="1">
@@ -2143,10 +2137,10 @@
       <c r="D5" s="2">
         <v>0.66666666666666596</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="12">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="13">
         <v>0.58333333333333304</v>
       </c>
       <c r="G5" s="1">
@@ -2229,10 +2223,10 @@
       <c r="D6" s="2">
         <v>0.84415584415584399</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="12">
         <v>4</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="13">
         <v>0.79220779220779203</v>
       </c>
       <c r="G6" s="1">
@@ -2315,10 +2309,10 @@
       <c r="D7" s="2">
         <v>0.44360902255639001</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="12">
         <v>5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="13">
         <v>0.42105263157894701</v>
       </c>
       <c r="G7" s="1">
@@ -2401,10 +2395,10 @@
       <c r="D8" s="2">
         <v>0.36111111111111099</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="12">
         <v>6</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="13">
         <v>0.44444444444444398</v>
       </c>
       <c r="G8" s="1">
@@ -2487,10 +2481,10 @@
       <c r="D9" s="2">
         <v>0.63725490196078405</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="12">
         <v>7</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="13">
         <v>0.92156862745098</v>
       </c>
       <c r="G9" s="1">
@@ -2573,10 +2567,10 @@
       <c r="D10" s="2">
         <v>0.76649746192893398</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="12">
         <v>8</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="13">
         <v>0.61421319796954299</v>
       </c>
       <c r="G10" s="1">
@@ -2659,10 +2653,10 @@
       <c r="D11" s="2">
         <v>0.54545454545454497</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="12">
         <v>9</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="13">
         <v>0.81818181818181801</v>
       </c>
       <c r="G11" s="1">
@@ -2745,10 +2739,10 @@
       <c r="D12" s="2">
         <v>0.72413793103448199</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="12">
         <v>10</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="13">
         <v>1</v>
       </c>
       <c r="G12" s="1">
@@ -2831,10 +2825,10 @@
       <c r="D13" s="2">
         <v>0.3</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="12">
         <v>11</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="13">
         <v>0.33</v>
       </c>
       <c r="G13" s="1">
@@ -2917,10 +2911,10 @@
       <c r="D14" s="2">
         <v>0.25190839694656397</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="12">
         <v>12</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="13">
         <v>0.32824427480916002</v>
       </c>
       <c r="G14" s="1">
@@ -3003,10 +2997,10 @@
       <c r="D15" s="2">
         <v>0.29464285714285698</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="12">
         <v>13</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="13">
         <v>0.3125</v>
       </c>
       <c r="G15" s="1">
@@ -3089,10 +3083,10 @@
       <c r="D16" s="2">
         <v>0.40127388535031799</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="12">
         <v>14</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="13">
         <v>0.31210191082802502</v>
       </c>
       <c r="G16" s="1">
@@ -3175,10 +3169,10 @@
       <c r="D17" s="2">
         <v>0.473118279569892</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="12">
         <v>15</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="13">
         <v>0.90322580645161199</v>
       </c>
       <c r="G17" s="1">
@@ -3261,10 +3255,10 @@
       <c r="D18" s="2">
         <v>0.17142857142857101</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="12">
         <v>16</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="13">
         <v>0.22857142857142801</v>
       </c>
       <c r="G18" s="1">
@@ -3347,10 +3341,10 @@
       <c r="D19" s="2">
         <v>0.75757575757575701</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="12">
         <v>17</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="13">
         <v>0.81818181818181801</v>
       </c>
       <c r="G19" s="1">
@@ -3433,10 +3427,10 @@
       <c r="D20" s="2">
         <v>0.63414634146341398</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="12">
         <v>18</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="13">
         <v>0.57317073170731703</v>
       </c>
       <c r="G20" s="1">
@@ -3519,10 +3513,10 @@
       <c r="D21" s="10">
         <v>0.53684210526315701</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="12">
         <v>19</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="13">
         <v>0.71578947368420998</v>
       </c>
       <c r="G21" s="9">
@@ -3605,10 +3599,10 @@
       <c r="D22" s="2">
         <v>0.40972222222222199</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="12">
         <v>20</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="13">
         <v>0.58333333333333304</v>
       </c>
       <c r="G22" s="1">
@@ -3691,10 +3685,10 @@
       <c r="D23" s="2">
         <v>0.60233918128654895</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="12">
         <v>21</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="13">
         <v>0.47953216374268998</v>
       </c>
       <c r="G23" s="1">
@@ -3777,10 +3771,10 @@
       <c r="D24" s="2">
         <v>0.56862745098039202</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="12">
         <v>22</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="13">
         <v>0.66666666666666596</v>
       </c>
       <c r="G24" s="1">
@@ -3863,10 +3857,10 @@
       <c r="D25" s="2">
         <v>0.40944881889763701</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="12">
         <v>23</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="13">
         <v>0.33070866141732203</v>
       </c>
       <c r="G25" s="1">
@@ -3949,10 +3943,10 @@
       <c r="D26" s="2">
         <v>0.76666666666666605</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="12">
         <v>24</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="13">
         <v>0.85555555555555496</v>
       </c>
       <c r="G26" s="1">
@@ -4035,10 +4029,10 @@
       <c r="D27" s="2">
         <v>0.29411764705882298</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="12">
         <v>25</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="13">
         <v>0.11764705882352899</v>
       </c>
       <c r="G27" s="1">
@@ -4121,10 +4115,10 @@
       <c r="D28" s="2">
         <v>0.94202898550724601</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="12">
         <v>26</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="13">
         <v>0.97101449275362295</v>
       </c>
       <c r="G28" s="1">
@@ -4207,10 +4201,10 @@
       <c r="D29" s="2">
         <v>0.5</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="12">
         <v>27</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="13">
         <v>0.82158590308370005</v>
       </c>
       <c r="G29" s="1">
@@ -4293,10 +4287,10 @@
       <c r="D30" s="2">
         <v>0.82692307692307598</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="12">
         <v>28</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="13">
         <v>0.86538461538461497</v>
       </c>
       <c r="G30" s="1">
@@ -4379,10 +4373,10 @@
       <c r="D31" s="2">
         <v>0.78823529411764703</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="12">
         <v>29</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="13">
         <v>0.8</v>
       </c>
       <c r="G31" s="1">
@@ -4465,10 +4459,10 @@
       <c r="D32" s="2">
         <v>0.53932584269662898</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="12">
         <v>30</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="13">
         <v>0.47191011235954999</v>
       </c>
       <c r="G32" s="1">
@@ -4755,7 +4749,7 @@
       <c r="E35" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <f>AVERAGE(F3:F12)</f>
         <v>0.67092607569867446</v>
       </c>
@@ -4855,7 +4849,7 @@
       <c r="E36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <f>AVERAGE(F13:F22)</f>
         <v>0.51051187775669038</v>
       </c>
@@ -4955,7 +4949,7 @@
       <c r="E37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <f>AVERAGE(F23:F32)</f>
         <v>0.638000522978725</v>
       </c>
@@ -5045,46 +5039,46 @@
     </row>
     <row r="41" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="I41" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="8" t="s">
+      <c r="J41" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="K41" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="L41" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="M41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N41" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="O41" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
